--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -15222,7 +15222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15243,15 +15243,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>前次進價日期</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>最新進價日期</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>前次進價</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>最新進價</t>
         </is>
@@ -15270,13 +15275,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2025/12/21</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>2026/01/29</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>305</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>310</v>
       </c>
     </row>
@@ -15293,13 +15303,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2025/12/08</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>2026/01/29</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>225</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>230</v>
       </c>
     </row>

--- a/價格整理.xlsx
+++ b/價格整理.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>NIL0212</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7094,11 +7094,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>竹大壽金20支</t>
+          <t>竹漿天尺20支</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>210</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45">
@@ -7109,26 +7109,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>竹漿天尺20支</t>
+          <t>金白錢各1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>490</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>NIL0212</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>金白錢各1</t>
+          <t>竹大壽金20支</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>NIL0212</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>NIL0212</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16053,16 +16053,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>竹大壽金20支</t>
+          <t>竹漿天尺20支</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2026/02/12</t>
+          <t>2025/12/19</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>210</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45">
@@ -16073,36 +16073,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>竹漿天尺20支</t>
+          <t>金白錢各1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025/12/19</t>
+          <t>2025/12/20</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>490</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>NIL0212</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>金白錢各1</t>
+          <t>竹大壽金20支</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2026/02/12</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47">
@@ -18336,7 +18336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18463,56 +18463,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NIL</t>
+          <t>WA02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>竹大壽金20支</t>
+          <t>2號旺(鳳梨蠟燭)6對</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025/12/20</t>
+          <t>2025/12/10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026/02/12</t>
+          <t>2026/02/09</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="F5" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>WA02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2號旺(鳳梨蠟燭)6對</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025/12/10</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2026/02/09</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>510</v>
-      </c>
-      <c r="F6" t="n">
         <v>520</v>
       </c>
     </row>
